--- a/medicine/Enfance/MaryJanice_Davidson/MaryJanice_Davidson.xlsx
+++ b/medicine/Enfance/MaryJanice_Davidson/MaryJanice_Davidson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">MaryJanice Davidson, née le 1er août 1969, est une écrivaine américaine de fantasy qui écrit notamment de la romance paranormale, mais aussi de la littérature pour jeunes adultes et de la non-fiction. Elle est la créatrice de la série populaire Queen Betsy. Elle est classée sur la liste des bestsellers du New York Times et de l'USA Today. 
 En 2004, elle a gagné le Romantic Times Reviewer’s Choice Award et est nommée en 2005 pour le même prix. Elle vit dans le Minnesota avec son mari et ses deux enfants.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Wyndham Werewolf
-(en) Love's Prisoner, 2000Roman court publié dans Secrets 6
+          <t>Série Wyndham Werewolf</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Love's Prisoner, 2000Roman court publié dans Secrets 6
 (en) Jared's Wolf, 2002Nouvelle publiée dans Secrets 8
 (en) Derik's Bane, 2005
 (en) Wolf at the Door, 2011
@@ -523,9 +540,43 @@
 (en) Monster Love, 2002Roman court publié dans Dead and Loving It
 (en) There's No Such Thing as a Werewolf, 2003Roman court publié dans Dead and Loving It
 (en) Speed Dating Werewolf Style or, Ow, I Think You Broke the Bone, 2008Roman court publié dans Dead Over Heels
-(en) Incomer, 2013Roman court publié dans Undead and Underwater
-Série Queen Betsy
-Vampire et célibataire, Milady, 2011 ((en) Undead and Unwed, 2004)
+(en) Incomer, 2013Roman court publié dans Undead and Underwater</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Queen Betsy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vampire et célibataire, Milady, 2011 ((en) Undead and Unwed, 2004)
 Vampire et fauchée, Milady, 2011 ((en) Undead and Unemployed, 2004)
 Vampire et complexée, Milady, 2011 ((en) Undead and Unappreciated, 2005)
 Vampire et irrécupérable, Milady, 2011 ((en) Undead and Unreturnable, 2005)
@@ -539,38 +590,276 @@
 Vampire et paumée, Milady, 2014 ((en) Undead and Unsure, 2013)
 Vampire et naïve, Milady, 2015 ((en) Undead and Unwary, 2014)
 Vampire et impardonnable, Milady, 2016 ((en) Undead and Unforgiven, 2015)
-Vampire et increvable, Milady, 2017 ((en) Undead and Done, 2016)
-Série Alaskan Royal Family
-(en) The Royal Treatment, 2004
+Vampire et increvable, Milady, 2017 ((en) Undead and Done, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Alaskan Royal Family</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Royal Treatment, 2004
 (en) The Royal Pain, 2005
-(en) The Royal Mess, 2007
-Série Cyborg
-(en) Hello, Gorgeous!, 2005
-(en) Drop Dead, Gorgeous, 2006
-Série Jennifer Scales (avec Anthony Alongi)
-(en) Jennifer Scales and the Ancient Furnace, 2005
+(en) The Royal Mess, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Cyborg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Hello, Gorgeous!, 2005
+(en) Drop Dead, Gorgeous, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Jennifer Scales (avec Anthony Alongi)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Jennifer Scales and the Ancient Furnace, 2005
 (en) Jennifer Scales and the Messenger of Light, 2006
 (en) The Silver Moon Elm, 2007
 (en) Seraph of Sorrow, 2009
 (en) Rise of the Poison Moon, 2010
-(en) Evangelina, 2012
-Série Fred the Mermaid
-(en) Sleeping with the Fishes, 2006
+(en) Evangelina, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Fred the Mermaid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Sleeping with the Fishes, 2006
 (en) Swimming Without a Net, 2007
-(en) Fish Out of Water, 2008
-Série Me, Myself, and Why?
-(en) Outta the Bag, 2010
+(en) Fish Out of Water, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Me, Myself, and Why?</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Outta the Bag, 2010
 (en) Me, Myself, and Why?, 2010
-(en) Yours, Mine and Ours, 2012
-Divers
-(en) Adventures of the Teen Furies, 1998
+(en) Yours, Mine and Ours, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Adventures of the Teen Furies, 1998
 (en) By Any Other Name, 1998
 (en) Thief of Hearts, 2001
 (en) Under Cover, 2003
 (en) Doing It Right, 2007
-(en) Dying for Ice Cream, 2011
-Nouvelles parues en anthologie
-(en) Santa Claws, 2001dans Naughty or Nice, avec Lani Aames et Treva Harte ; réédité en 2004 dans l'anthologie Nicely Naughty, avec Lani Aames et Treva Harte
+(en) Dying for Ice Cream, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles parues en anthologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Santa Claws, 2001dans Naughty or Nice, avec Lani Aames et Treva Harte ; réédité en 2004 dans l'anthologie Nicely Naughty, avec Lani Aames et Treva Harte
 (en) Dead Girls Don't Dance, 2004dans Cravings, avec Laurell K. Hamilton, Eileen Wilks et Rebecca York
 (en) My Thief, 2004dans Perfect for the Beach, avec Janelle Denison, Lori Foster, Morgan Leigh, Erin McCarthy et Kayla Perrin)
 (en) The Wicked Witch of the West Side, 2004dans How to Be a Wicked Woman, avec Susanna Carr et Jamie Ann Denton
@@ -587,9 +876,43 @@
 (en) Witch Way, 2007dans Demon's Delight, avec Emma Holly, Catherine Spangler et Vickie Taylor
 (en) The Majicka, 2007dans No Rest for the Witches, avec Lori Handeland, Cheyenne McCray et Christine Warren
 (en) Disdaining Trouble, 2008dans Mysteria Lane, avec PC Cast, Susan Grant et Gena Showalter
-(en) Tall, Dark and not so Faery, 2009dans Faeries Gone Wild, avec Lois Greiman, Michele Hauf et Leandra Logan
-Coffrets
-(en) Undead and Unwed, 2010dans Blood Lust 6, avec Christine Feehan (en), J. R. Ward, Erin McCarthy, Nalini Singh et Meljean Brook (en) ; coffret comprenant les romans des six auteurs précités
+(en) Tall, Dark and not so Faery, 2009dans Faeries Gone Wild, avec Lois Greiman, Michele Hauf et Leandra Logan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MaryJanice_Davidson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Coffrets</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) Undead and Unwed, 2010dans Blood Lust 6, avec Christine Feehan (en), J. R. Ward, Erin McCarthy, Nalini Singh et Meljean Brook (en) ; coffret comprenant les romans des six auteurs précités
 (en) Undead and Uneasy, 2010dans Blood Sample 7, avec Laurell K. Hamilton, Charlaine Harris, Katie MacAlister (en), Colleen Gleason, Kelley Armstrong et J. R. Ward ; coffret comprenant les romans des sept auteurs précités</t>
         </is>
       </c>
